--- a/src/modelsTeste.xlsx
+++ b/src/modelsTeste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,11 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -499,53 +499,53 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arduino</t>
+          <t>Anki-Android</t>
         </is>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AsciidocFX</t>
+          <t>Arduino</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMserver</t>
+          <t>AsciidocFX</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -562,200 +562,200 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BungeeCord</t>
+          <t>BIMserver</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DependencyCheck</t>
+          <t>BungeeCord</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FastHub</t>
+          <t>Chronicle-Queue</t>
         </is>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glowstone</t>
+          <t>DependencyCheck</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JSqlParser</t>
+          <t>FastHub</t>
         </is>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LuckPerms</t>
+          <t>Glowstone</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MPS</t>
+          <t>HMCL</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NetGuard</t>
+          <t>JSqlParser</t>
         </is>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OpenID-Connect-Java-Spring-Server</t>
+          <t>LuckPerms</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OpenRefine</t>
+          <t>MPS</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -772,221 +772,221 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OpenTripPlanner</t>
+          <t>NetGuard</t>
         </is>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Openfire</t>
+          <t>OpenID-Connect-Java-Spring-Server</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OsmAnd</t>
+          <t>OpenRefine</t>
         </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RedReader</t>
+          <t>OpenTripPlanner</t>
         </is>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Saturn</t>
+          <t>Openfire</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shuttle</t>
+          <t>OsmAnd</t>
         </is>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Signal-Android</t>
+          <t>Saturn</t>
         </is>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SpongeForge</t>
+          <t>Shuttle</t>
         </is>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UniversalMediaServer</t>
+          <t>Signal-Android</t>
         </is>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>activemq</t>
+          <t>SpongeForge</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>airbyte</t>
+          <t>UniversalMediaServer</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1003,11 +1003,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>airsonic</t>
+          <t>activemq</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1024,11 +1024,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>alluxio</t>
+          <t>airbyte</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1045,116 +1045,116 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ambari</t>
+          <t>airsonic</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ambry</t>
+          <t>alluxio</t>
         </is>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>amidst</t>
+          <t>ambari</t>
         </is>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>ambry</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>android-oss</t>
+          <t>android</t>
         </is>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>android2</t>
+          <t>android-oss</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1171,91 +1171,91 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>angel</t>
+          <t>apollo</t>
         </is>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>apollo</t>
+          <t>apps-android-wikipedia</t>
         </is>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>apps-android-wikipedia</t>
+          <t>autopsy</t>
         </is>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>autopsy</t>
+          <t>avro</t>
         </is>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1812,32 +1812,32 @@
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>elasticsearch-hadoop</t>
+          <t>embulk</t>
         </is>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -1847,18 +1847,18 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>embulk</t>
+          <t>error-prone</t>
         </is>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>error-prone</t>
+          <t>find-sec-bugs</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -1885,32 +1885,32 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>find-sec-bugs</t>
+          <t>flexmark-java</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>flexmark-java</t>
+          <t>flowable-engine</t>
         </is>
       </c>
       <c r="C71" t="b">
@@ -1927,11 +1927,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>flowable-engine</t>
+          <t>flume</t>
         </is>
       </c>
       <c r="C72" t="b">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>flume</t>
+          <t>flyway</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>flyway</t>
+          <t>gatk</t>
         </is>
       </c>
       <c r="C74" t="b">
@@ -1990,32 +1990,32 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gatk</t>
+          <t>genie</t>
         </is>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>genie</t>
+          <t>geoserver</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -2032,64 +2032,64 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>geoserver</t>
+          <t>gephi</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>gephi</t>
+          <t>gitblit</t>
         </is>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>gitblit</t>
+          <t>gitlab-plugin</t>
         </is>
       </c>
       <c r="C79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>gitlab-plugin</t>
+          <t>gocd</t>
         </is>
       </c>
       <c r="C80" t="b">
@@ -2116,32 +2116,32 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>gocd</t>
+          <t>gravitee-gateway</t>
         </is>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>gravitee-gateway</t>
+          <t>graylog2-server</t>
         </is>
       </c>
       <c r="C82" t="b">
@@ -2158,112 +2158,112 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>graylog2-server</t>
+          <t>grobid</t>
         </is>
       </c>
       <c r="C83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>grobid</t>
+          <t>guacamole-client</t>
         </is>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>guacamole-client</t>
+          <t>h2o-3</t>
         </is>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>h2o-3</t>
+          <t>hadoop</t>
         </is>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hadoop</t>
+          <t>hawtio</t>
         </is>
       </c>
       <c r="C87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2305,22 +2305,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>httpcomponents-client</t>
+          <t>hudi</t>
         </is>
       </c>
       <c r="C90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>hudi</t>
+          <t>iceberg</t>
         </is>
       </c>
       <c r="C91" t="b">
@@ -2347,11 +2347,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>iceberg</t>
+          <t>incubator-dolphinscheduler</t>
         </is>
       </c>
       <c r="C92" t="b">
@@ -2368,53 +2368,53 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>incubator-dolphinscheduler</t>
+          <t>incubator-heron</t>
         </is>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>incubator-heron</t>
+          <t>incubator-pinot</t>
         </is>
       </c>
       <c r="C94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>incubator-pinot</t>
+          <t>intellij-community</t>
         </is>
       </c>
       <c r="C95" t="b">
@@ -2431,11 +2431,11 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>intellij-community</t>
+          <t>jabref</t>
         </is>
       </c>
       <c r="C96" t="b">
@@ -2456,150 +2456,150 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jabref</t>
+          <t>jackson-databind</t>
         </is>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jackson-databind</t>
+          <t>javamelody</t>
         </is>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>javamelody</t>
+          <t>jbpm</t>
         </is>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jbpm</t>
+          <t>jenkins</t>
         </is>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jenkins</t>
+          <t>jetty.project</t>
         </is>
       </c>
       <c r="C101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jetty.project</t>
+          <t>jib</t>
         </is>
       </c>
       <c r="C102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jib</t>
+          <t>jitsi</t>
         </is>
       </c>
       <c r="C103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2641,32 +2641,32 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jmxtrans</t>
+          <t>kaa</t>
         </is>
       </c>
       <c r="C106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>kaa</t>
+          <t>keycloak</t>
         </is>
       </c>
       <c r="C107" t="b">
@@ -2683,43 +2683,43 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>keycloak</t>
+          <t>keywhiz</t>
         </is>
       </c>
       <c r="C108" t="b">
         <v>1</v>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>keywhiz</t>
+          <t>killbill</t>
         </is>
       </c>
       <c r="C109" t="b">
         <v>1</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>killbill</t>
+          <t>languagetool</t>
         </is>
       </c>
       <c r="C110" t="b">
@@ -2746,22 +2746,22 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>languagetool</t>
+          <t>lbry-android</t>
         </is>
       </c>
       <c r="C111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -2771,91 +2771,91 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>lbry-android</t>
+          <t>liferay-portal</t>
         </is>
       </c>
       <c r="C112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>liferay-portal</t>
+          <t>liquibase</t>
         </is>
       </c>
       <c r="C113" t="b">
         <v>1</v>
       </c>
       <c r="D113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>liquibase</t>
+          <t>lucida</t>
         </is>
       </c>
       <c r="C114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>lucida</t>
+          <t>mage</t>
         </is>
       </c>
       <c r="C115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>mage</t>
+          <t>mahout</t>
         </is>
       </c>
       <c r="C116" t="b">
@@ -2872,43 +2872,43 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>mahout</t>
+          <t>marytts</t>
         </is>
       </c>
       <c r="C117" t="b">
         <v>1</v>
       </c>
       <c r="D117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>marytts</t>
+          <t>materialistic</t>
         </is>
       </c>
       <c r="C118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -2918,28 +2918,28 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>materialistic</t>
+          <t>maxwell</t>
         </is>
       </c>
       <c r="C119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>maxwell</t>
+          <t>micrometer</t>
         </is>
       </c>
       <c r="C120" t="b">
@@ -2960,18 +2960,18 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>micrometer</t>
+          <t>modeldb</t>
         </is>
       </c>
       <c r="C121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>modeldb</t>
+          <t>mybatis-plus</t>
         </is>
       </c>
       <c r="C122" t="b">
@@ -2998,74 +2998,74 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>mybatis-plus</t>
+          <t>nacos</t>
         </is>
       </c>
       <c r="C123" t="b">
         <v>1</v>
       </c>
       <c r="D123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>nacos</t>
+          <t>netbeans</t>
         </is>
       </c>
       <c r="C124" t="b">
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>netbeans</t>
+          <t>ngrinder</t>
         </is>
       </c>
       <c r="C125" t="b">
         <v>1</v>
       </c>
       <c r="D125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ngrinder</t>
+          <t>nifi</t>
         </is>
       </c>
       <c r="C126" t="b">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>nifi</t>
+          <t>nomulus</t>
         </is>
       </c>
       <c r="C127" t="b">
@@ -3103,11 +3103,11 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>nomulus</t>
+          <t>nutch</t>
         </is>
       </c>
       <c r="C128" t="b">
@@ -3124,53 +3124,53 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>nutch</t>
+          <t>okhttp</t>
         </is>
       </c>
       <c r="C129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>okhttp</t>
+          <t>onedev</t>
         </is>
       </c>
       <c r="C130" t="b">
         <v>1</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>onedev</t>
+          <t>openapi-generator</t>
         </is>
       </c>
       <c r="C131" t="b">
@@ -3187,28 +3187,28 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>openapi-generator</t>
+          <t>opengrok</t>
         </is>
       </c>
       <c r="C132" t="b">
         <v>1</v>
       </c>
       <c r="D132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3250,32 +3250,32 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>optaplanner</t>
+          <t>osmdroid</t>
         </is>
       </c>
       <c r="C135" t="b">
         <v>1</v>
       </c>
       <c r="D135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>osmdroid</t>
+          <t>pac4j</t>
         </is>
       </c>
       <c r="C136" t="b">
@@ -3292,64 +3292,64 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>pac4j</t>
+          <t>parquet-mr</t>
         </is>
       </c>
       <c r="C137" t="b">
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>parquet-mr</t>
+          <t>pentaho-kettle</t>
         </is>
       </c>
       <c r="C138" t="b">
         <v>1</v>
       </c>
       <c r="D138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>pentaho-kettle</t>
+          <t>phimpme-android</t>
         </is>
       </c>
       <c r="C139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3359,81 +3359,81 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>phimpme-android</t>
+          <t>pinpoint</t>
         </is>
       </c>
       <c r="C140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>pinpoint</t>
+          <t>pitest</t>
         </is>
       </c>
       <c r="C141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>pitest</t>
+          <t>pmd</t>
         </is>
       </c>
       <c r="C142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>pmd</t>
+          <t>presto</t>
         </is>
       </c>
       <c r="C143" t="b">
         <v>1</v>
       </c>
       <c r="D143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3443,18 +3443,18 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>pravega</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="C144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3464,18 +3464,18 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>presto</t>
+          <t>psi-probe</t>
         </is>
       </c>
       <c r="C145" t="b">
         <v>1</v>
       </c>
       <c r="D145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3485,18 +3485,18 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>pslab-android</t>
         </is>
       </c>
       <c r="C146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3506,18 +3506,18 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>psi-probe</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="C147" t="b">
         <v>1</v>
       </c>
       <c r="D147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>pslab-android</t>
+          <t>qksms</t>
         </is>
       </c>
       <c r="C148" t="b">
@@ -3544,11 +3544,11 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>pulsar</t>
+          <t>redisson</t>
         </is>
       </c>
       <c r="C149" t="b">
@@ -3565,43 +3565,43 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>qksms</t>
+          <t>ripme</t>
         </is>
       </c>
       <c r="C150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>redisson</t>
+          <t>rocketmq</t>
         </is>
       </c>
       <c r="C151" t="b">
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3611,18 +3611,18 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ripme</t>
+          <t>rstudio</t>
         </is>
       </c>
       <c r="C152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3632,70 +3632,70 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>rocketmq</t>
+          <t>runelite</t>
         </is>
       </c>
       <c r="C153" t="b">
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>rstudio</t>
+          <t>scouter</t>
         </is>
       </c>
       <c r="C154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>runelite</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="C155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>scouter</t>
+          <t>servicecomb-pack</t>
         </is>
       </c>
       <c r="C156" t="b">
@@ -3716,28 +3716,28 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>shardingsphere-elasticjob</t>
         </is>
       </c>
       <c r="C157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>servicecomb-pack</t>
+          <t>skywalking</t>
         </is>
       </c>
       <c r="C158" t="b">
@@ -3754,32 +3754,32 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>shardingsphere-elasticjob</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="C159" t="b">
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>skywalking</t>
+          <t>sonarqube</t>
         </is>
       </c>
       <c r="C160" t="b">
@@ -3796,22 +3796,22 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>soul</t>
         </is>
       </c>
       <c r="C161" t="b">
         <v>1</v>
       </c>
       <c r="D161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3821,18 +3821,18 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>sonarqube</t>
+          <t>speedment</t>
         </is>
       </c>
       <c r="C162" t="b">
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>soul</t>
+          <t>spotbugs</t>
         </is>
       </c>
       <c r="C163" t="b">
@@ -3859,32 +3859,32 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>speedment</t>
+          <t>spring-boot-admin</t>
         </is>
       </c>
       <c r="C164" t="b">
         <v>1</v>
       </c>
       <c r="D164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>spotbugs</t>
+          <t>spring-cloud-alibaba</t>
         </is>
       </c>
       <c r="C165" t="b">
@@ -3905,18 +3905,18 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>spring-boot-admin</t>
+          <t>spring-cloud-config</t>
         </is>
       </c>
       <c r="C166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3926,18 +3926,18 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>spring-cloud-alibaba</t>
+          <t>spring-cloud-gateway</t>
         </is>
       </c>
       <c r="C167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3947,18 +3947,18 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>spring-cloud-config</t>
+          <t>spring-cloud-netflix</t>
         </is>
       </c>
       <c r="C168" t="b">
         <v>1</v>
       </c>
       <c r="D168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3968,18 +3968,18 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>spring-cloud-gateway</t>
+          <t>spring-cloud-sleuth</t>
         </is>
       </c>
       <c r="C169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>spring-cloud-netflix</t>
+          <t>stagemonitor</t>
         </is>
       </c>
       <c r="C170" t="b">
@@ -4006,11 +4006,11 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>spring-cloud-sleuth</t>
+          <t>storm</t>
         </is>
       </c>
       <c r="C171" t="b">
@@ -4027,11 +4027,11 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>stagemonitor</t>
+          <t>strimzi-kafka-operator</t>
         </is>
       </c>
       <c r="C172" t="b">
@@ -4048,74 +4048,74 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>swagger-core</t>
         </is>
       </c>
       <c r="C173" t="b">
         <v>1</v>
       </c>
       <c r="D173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>strimzi-kafka-operator</t>
+          <t>syncany</t>
         </is>
       </c>
       <c r="C174" t="b">
         <v>1</v>
       </c>
       <c r="D174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>susi_server</t>
+          <t>synthea</t>
         </is>
       </c>
       <c r="C175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>swagger-core</t>
+          <t>tablesaw</t>
         </is>
       </c>
       <c r="C176" t="b">
@@ -4132,53 +4132,53 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>syncany</t>
+          <t>teammates</t>
         </is>
       </c>
       <c r="C177" t="b">
         <v>1</v>
       </c>
       <c r="D177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>synthea</t>
+          <t>thingsboard</t>
         </is>
       </c>
       <c r="C178" t="b">
         <v>1</v>
       </c>
       <c r="D178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>tablesaw</t>
+          <t>thymeleaf</t>
         </is>
       </c>
       <c r="C179" t="b">
@@ -4195,32 +4195,32 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>teammates</t>
+          <t>tika</t>
         </is>
       </c>
       <c r="C180" t="b">
         <v>1</v>
       </c>
       <c r="D180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>thingsboard</t>
+          <t>tomcat</t>
         </is>
       </c>
       <c r="C181" t="b">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>tika</t>
+          <t>traccar</t>
         </is>
       </c>
       <c r="C182" t="b">
@@ -4262,18 +4262,18 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>tomcat</t>
+          <t>uaa</t>
         </is>
       </c>
       <c r="C183" t="b">
         <v>1</v>
       </c>
       <c r="D183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>traccar</t>
+          <t>uhabits</t>
         </is>
       </c>
       <c r="C184" t="b">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>uaa</t>
+          <t>undertow</t>
         </is>
       </c>
       <c r="C185" t="b">
@@ -4321,43 +4321,43 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>uhabits</t>
+          <t>vert.x</t>
         </is>
       </c>
       <c r="C186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>undertow</t>
+          <t>vespa</t>
         </is>
       </c>
       <c r="C187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -4367,18 +4367,18 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>vert.x</t>
+          <t>visualvm</t>
         </is>
       </c>
       <c r="C188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4388,60 +4388,60 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>vespa</t>
+          <t>wildfly</t>
         </is>
       </c>
       <c r="C189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>visualvm</t>
+          <t>xabber-android</t>
         </is>
       </c>
       <c r="C190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>wildfly</t>
+          <t>yacy_search_server</t>
         </is>
       </c>
       <c r="C191" t="b">
         <v>1</v>
       </c>
       <c r="D191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4451,18 +4451,18 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>xabber-android</t>
+          <t>zaproxy</t>
         </is>
       </c>
       <c r="C192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>yacy_search_server</t>
+          <t>zeebe</t>
         </is>
       </c>
       <c r="C193" t="b">
@@ -4493,18 +4493,18 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>zaproxy</t>
+          <t>zeppelin</t>
         </is>
       </c>
       <c r="C194" t="b">
         <v>1</v>
       </c>
       <c r="D194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4514,18 +4514,18 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>zeebe</t>
+          <t>zipkin</t>
         </is>
       </c>
       <c r="C195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4535,58 +4535,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>zeppelin</t>
+          <t>zookeeper</t>
         </is>
       </c>
       <c r="C196" t="b">
         <v>1</v>
       </c>
       <c r="D196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="inlineStr">
-        <is>
-          <t>Multi-Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>zipkin</t>
-        </is>
-      </c>
-      <c r="C197" t="b">
-        <v>1</v>
-      </c>
-      <c r="D197" t="b">
-        <v>1</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Multi-Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>zookeeper</t>
-        </is>
-      </c>
-      <c r="C198" t="b">
-        <v>1</v>
-      </c>
-      <c r="D198" t="b">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>

--- a/src/modelsTeste.xlsx
+++ b/src/modelsTeste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anki-Android</t>
+          <t>AndroidUtilCode</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -520,11 +520,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arduino</t>
+          <t>AnySoftKeyboard</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMserver</t>
+          <t>AxonFramework</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -583,32 +583,32 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BungeeCord</t>
+          <t>BIMserver</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chronicle-Queue</t>
+          <t>BroadleafCommerce</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -625,53 +625,53 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DependencyCheck</t>
+          <t>BungeeCord</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FastHub</t>
+          <t>Chronicle-Queue</t>
         </is>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glowstone</t>
+          <t>CoreNLP</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -688,53 +688,53 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HMCL</t>
+          <t>DependencyCheck</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JSqlParser</t>
+          <t>FirebaseUI-Android</t>
         </is>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LuckPerms</t>
+          <t>FrameworkBenchmarks</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -751,53 +751,53 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MPS</t>
+          <t>Gaffer</t>
         </is>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NetGuard</t>
+          <t>HikariCP</t>
         </is>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OpenID-Connect-Java-Spring-Server</t>
+          <t>JSqlParser</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -814,95 +814,95 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OpenRefine</t>
+          <t>MPAndroidChart</t>
         </is>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OpenTripPlanner</t>
+          <t>NetGuard</t>
         </is>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Openfire</t>
+          <t>OpenID-Connect-Java-Spring-Server</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OsmAnd</t>
+          <t>OpenRefine</t>
         </is>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Saturn</t>
+          <t>OpenTripPlanner</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -919,53 +919,53 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Shuttle</t>
+          <t>Openfire</t>
         </is>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Signal-Android</t>
+          <t>OsmAnd</t>
         </is>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SpongeForge</t>
+          <t>Saturn</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -982,11 +982,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UniversalMediaServer</t>
+          <t>ShedLock</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1003,53 +1003,53 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>activemq</t>
+          <t>Signal-Android</t>
         </is>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>airbyte</t>
+          <t>TwelveMonkeys</t>
         </is>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>airsonic</t>
+          <t>Twitter4J</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1066,32 +1066,32 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>alluxio</t>
+          <t>UniversalMediaServer</t>
         </is>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ambari</t>
+          <t>YCSB</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1108,11 +1108,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ambry</t>
+          <t>activemq</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1129,53 +1129,53 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>aliyun-openapi-java-sdk</t>
         </is>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>android-oss</t>
+          <t>alluxio</t>
         </is>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>apollo</t>
+          <t>ambari</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1192,32 +1192,32 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>apps-android-wikipedia</t>
+          <t>ambry</t>
         </is>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>autopsy</t>
+          <t>android</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1234,74 +1234,74 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>avro</t>
+          <t>armeria</t>
         </is>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>azkaban</t>
+          <t>atmosphere</t>
         </is>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bazel</t>
+          <t>autopsy</t>
         </is>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>beakerx</t>
+          <t>avro</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1318,32 +1318,32 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>aws-sdk-java</t>
         </is>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bigbluebutton</t>
+          <t>aws-sdk-java-v2</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -1360,11 +1360,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bisq</t>
+          <t>azkaban</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -1381,53 +1381,53 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bookkeeper</t>
+          <t>bazel</t>
         </is>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>buck</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cas</t>
+          <t>bisq</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -1444,32 +1444,32 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cgeo</t>
+          <t>bitcoinj</t>
         </is>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>che</t>
+          <t>bookkeeper</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -1486,11 +1486,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>checkstyle</t>
+          <t>bootique</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -1507,11 +1507,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>commafeed</t>
+          <t>brave</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -1528,11 +1528,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>conductor</t>
+          <t>byte-buddy</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -1549,53 +1549,53 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cqengine</t>
+          <t>caffeine</t>
         </is>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>cucumber-jvm</t>
+          <t>calcite</t>
         </is>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>cyberduck</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -1612,11 +1612,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cyclops</t>
+          <t>camunda-bpm-platform</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -1633,11 +1633,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dbeaver</t>
+          <t>cas</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -1654,95 +1654,95 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>debezium</t>
+          <t>cgeo</t>
         </is>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dl4j-examples</t>
+          <t>checkstyle</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>docker-maven-plugin</t>
+          <t>commafeed</t>
         </is>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>drools</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>dubbo</t>
+          <t>cuba</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -1759,11 +1759,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dynmap</t>
+          <t>cucumber-jvm</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ebean</t>
+          <t>cyberduck</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -1801,74 +1801,74 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ehcache3</t>
+          <t>dbeaver</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>embulk</t>
+          <t>debezium</t>
         </is>
       </c>
       <c r="C67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>error-prone</t>
+          <t>docker-maven-plugin</t>
         </is>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>find-sec-bugs</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -1885,74 +1885,74 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>flexmark-java</t>
+          <t>dropwizard</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>flowable-engine</t>
+          <t>dubbo</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>flume</t>
+          <t>dynmap</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>flyway</t>
+          <t>ebean</t>
         </is>
       </c>
       <c r="C73" t="b">
@@ -1969,32 +1969,32 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>gatk</t>
+          <t>ehcache3</t>
         </is>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>genie</t>
+          <t>elasticsearch</t>
         </is>
       </c>
       <c r="C75" t="b">
@@ -2015,39 +2015,39 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>geoserver</t>
+          <t>embulk</t>
         </is>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>gephi</t>
+          <t>error-prone</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -2057,28 +2057,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>gitblit</t>
+          <t>fastjson</t>
         </is>
       </c>
       <c r="C78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>gitlab-plugin</t>
+          <t>find-sec-bugs</t>
         </is>
       </c>
       <c r="C79" t="b">
@@ -2099,91 +2099,91 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>gocd</t>
+          <t>firebase-android-sdk</t>
         </is>
       </c>
       <c r="C80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>gravitee-gateway</t>
+          <t>flexmark-java</t>
         </is>
       </c>
       <c r="C81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>graylog2-server</t>
+          <t>flink</t>
         </is>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>grobid</t>
+          <t>flowable-engine</t>
         </is>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>guacamole-client</t>
+          <t>flyway</t>
         </is>
       </c>
       <c r="C84" t="b">
@@ -2200,32 +2200,32 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>h2o-3</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>hadoop</t>
+          <t>gatk</t>
         </is>
       </c>
       <c r="C86" t="b">
@@ -2242,74 +2242,74 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hawtio</t>
+          <t>genie</t>
         </is>
       </c>
       <c r="C87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>helios</t>
+          <t>geode</t>
         </is>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>heritrix3</t>
+          <t>geoserver</t>
         </is>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>hudi</t>
+          <t>geotools</t>
         </is>
       </c>
       <c r="C90" t="b">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>iceberg</t>
+          <t>gephi</t>
         </is>
       </c>
       <c r="C91" t="b">
@@ -2347,11 +2347,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>incubator-dolphinscheduler</t>
+          <t>ghidra</t>
         </is>
       </c>
       <c r="C92" t="b">
@@ -2372,28 +2372,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>incubator-heron</t>
+          <t>gitlab-plugin</t>
         </is>
       </c>
       <c r="C93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>incubator-pinot</t>
+          <t>gobblin</t>
         </is>
       </c>
       <c r="C94" t="b">
@@ -2410,11 +2410,11 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>intellij-community</t>
+          <t>gocd</t>
         </is>
       </c>
       <c r="C95" t="b">
@@ -2431,11 +2431,11 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jabref</t>
+          <t>google-api-java-client</t>
         </is>
       </c>
       <c r="C96" t="b">
@@ -2452,116 +2452,116 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jackson-databind</t>
+          <t>google-cloud-java</t>
         </is>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>javamelody</t>
+          <t>google-http-java-client</t>
         </is>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jbpm</t>
+          <t>graal</t>
         </is>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jenkins</t>
+          <t>graphhopper</t>
         </is>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jetty.project</t>
+          <t>graphql-java</t>
         </is>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
       <c r="D101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jib</t>
+          <t>graylog2-server</t>
         </is>
       </c>
       <c r="C102" t="b">
@@ -2578,11 +2578,11 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jitsi</t>
+          <t>grobid</t>
         </is>
       </c>
       <c r="C103" t="b">
@@ -2599,95 +2599,95 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jmeter</t>
+          <t>groovy</t>
         </is>
       </c>
       <c r="C104" t="b">
         <v>1</v>
       </c>
       <c r="D104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jmonkeyengine</t>
+          <t>grpc-java</t>
         </is>
       </c>
       <c r="C105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>kaa</t>
+          <t>gson</t>
         </is>
       </c>
       <c r="C106" t="b">
         <v>1</v>
       </c>
       <c r="D106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>keycloak</t>
+          <t>guava</t>
         </is>
       </c>
       <c r="C107" t="b">
         <v>1</v>
       </c>
       <c r="D107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>keywhiz</t>
+          <t>guice</t>
         </is>
       </c>
       <c r="C108" t="b">
@@ -2704,11 +2704,11 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>killbill</t>
+          <t>hadoop</t>
         </is>
       </c>
       <c r="C109" t="b">
@@ -2725,11 +2725,11 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>languagetool</t>
+          <t>hapi-fhir</t>
         </is>
       </c>
       <c r="C110" t="b">
@@ -2746,11 +2746,11 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>lbry-android</t>
+          <t>hawtio</t>
         </is>
       </c>
       <c r="C111" t="b">
@@ -2767,95 +2767,95 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>liferay-portal</t>
+          <t>heritrix3</t>
         </is>
       </c>
       <c r="C112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>liquibase</t>
+          <t>hive</t>
         </is>
       </c>
       <c r="C113" t="b">
         <v>1</v>
       </c>
       <c r="D113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>lucida</t>
+          <t>hudi</t>
         </is>
       </c>
       <c r="C114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>mage</t>
+          <t>i2p.i2p</t>
         </is>
       </c>
       <c r="C115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>mahout</t>
+          <t>iceberg</t>
         </is>
       </c>
       <c r="C116" t="b">
@@ -2872,53 +2872,53 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>marytts</t>
+          <t>immutables</t>
         </is>
       </c>
       <c r="C117" t="b">
         <v>1</v>
       </c>
       <c r="D117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>materialistic</t>
+          <t>initializr</t>
         </is>
       </c>
       <c r="C118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>maxwell</t>
+          <t>intellij-plugins</t>
         </is>
       </c>
       <c r="C119" t="b">
@@ -2935,11 +2935,11 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>micrometer</t>
+          <t>iotdb</t>
         </is>
       </c>
       <c r="C120" t="b">
@@ -2956,11 +2956,11 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>modeldb</t>
+          <t>jabref</t>
         </is>
       </c>
       <c r="C121" t="b">
@@ -2977,53 +2977,53 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>mybatis-plus</t>
+          <t>jackson-databind</t>
         </is>
       </c>
       <c r="C122" t="b">
         <v>1</v>
       </c>
       <c r="D122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>nacos</t>
+          <t>janusgraph</t>
         </is>
       </c>
       <c r="C123" t="b">
         <v>1</v>
       </c>
       <c r="D123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>netbeans</t>
+          <t>java-design-patterns</t>
         </is>
       </c>
       <c r="C124" t="b">
@@ -3040,11 +3040,11 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ngrinder</t>
+          <t>javamelody</t>
         </is>
       </c>
       <c r="C125" t="b">
@@ -3061,32 +3061,32 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>nifi</t>
+          <t>jbpm</t>
         </is>
       </c>
       <c r="C126" t="b">
         <v>1</v>
       </c>
       <c r="D126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>nomulus</t>
+          <t>jdbi</t>
         </is>
       </c>
       <c r="C127" t="b">
@@ -3103,74 +3103,74 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>nutch</t>
+          <t>jenkins</t>
         </is>
       </c>
       <c r="C128" t="b">
         <v>1</v>
       </c>
       <c r="D128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>okhttp</t>
+          <t>jib</t>
         </is>
       </c>
       <c r="C129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>onedev</t>
+          <t>jitsi</t>
         </is>
       </c>
       <c r="C130" t="b">
         <v>1</v>
       </c>
       <c r="D130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>openapi-generator</t>
+          <t>jmeter</t>
         </is>
       </c>
       <c r="C131" t="b">
@@ -3187,11 +3187,11 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>opengrok</t>
+          <t>jmonkeyengine</t>
         </is>
       </c>
       <c r="C132" t="b">
@@ -3208,11 +3208,11 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>openj9</t>
+          <t>joda-time</t>
         </is>
       </c>
       <c r="C133" t="b">
@@ -3229,53 +3229,53 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>openvidu</t>
+          <t>jodd</t>
         </is>
       </c>
       <c r="C134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>osmdroid</t>
+          <t>jooby</t>
         </is>
       </c>
       <c r="C135" t="b">
         <v>1</v>
       </c>
       <c r="D135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>pac4j</t>
+          <t>kairosdb</t>
         </is>
       </c>
       <c r="C136" t="b">
@@ -3292,32 +3292,32 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>parquet-mr</t>
+          <t>keycloak</t>
         </is>
       </c>
       <c r="C137" t="b">
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>pentaho-kettle</t>
+          <t>killbill</t>
         </is>
       </c>
       <c r="C138" t="b">
@@ -3334,74 +3334,74 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>phimpme-android</t>
+          <t>ksql</t>
         </is>
       </c>
       <c r="C139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>pinpoint</t>
+          <t>kubernetes-client</t>
         </is>
       </c>
       <c r="C140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>pitest</t>
+          <t>languagetool</t>
         </is>
       </c>
       <c r="C141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>pmd</t>
+          <t>light-4j</t>
         </is>
       </c>
       <c r="C142" t="b">
@@ -3418,32 +3418,32 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>presto</t>
+          <t>liquibase</t>
         </is>
       </c>
       <c r="C143" t="b">
         <v>1</v>
       </c>
       <c r="D143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>logback</t>
         </is>
       </c>
       <c r="C144" t="b">
@@ -3460,64 +3460,64 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>psi-probe</t>
+          <t>logging-log4j2</t>
         </is>
       </c>
       <c r="C145" t="b">
         <v>1</v>
       </c>
       <c r="D145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>pslab-android</t>
+          <t>mage</t>
         </is>
       </c>
       <c r="C146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>pulsar</t>
+          <t>manifold</t>
         </is>
       </c>
       <c r="C147" t="b">
         <v>1</v>
       </c>
       <c r="D147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>qksms</t>
+          <t>materialistic</t>
         </is>
       </c>
       <c r="C148" t="b">
@@ -3544,11 +3544,11 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>redisson</t>
+          <t>maxwell</t>
         </is>
       </c>
       <c r="C149" t="b">
@@ -3565,85 +3565,85 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ripme</t>
+          <t>micrometer</t>
         </is>
       </c>
       <c r="C150" t="b">
         <v>1</v>
       </c>
       <c r="D150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>rocketmq</t>
+          <t>micronaut-core</t>
         </is>
       </c>
       <c r="C151" t="b">
         <v>1</v>
       </c>
       <c r="D151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>rstudio</t>
+          <t>modeldb</t>
         </is>
       </c>
       <c r="C152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>runelite</t>
+          <t>mongo-java-driver</t>
         </is>
       </c>
       <c r="C153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>scouter</t>
+          <t>moquette</t>
         </is>
       </c>
       <c r="C154" t="b">
@@ -3670,11 +3670,11 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>morphia</t>
         </is>
       </c>
       <c r="C155" t="b">
@@ -3691,32 +3691,32 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>servicecomb-pack</t>
+          <t>nacos</t>
         </is>
       </c>
       <c r="C156" t="b">
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>shardingsphere-elasticjob</t>
+          <t>neo4j-apoc-procedures</t>
         </is>
       </c>
       <c r="C157" t="b">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>skywalking</t>
+          <t>netbeans</t>
         </is>
       </c>
       <c r="C158" t="b">
@@ -3754,32 +3754,32 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>netty</t>
         </is>
       </c>
       <c r="C159" t="b">
         <v>1</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sonarqube</t>
+          <t>ngrinder</t>
         </is>
       </c>
       <c r="C160" t="b">
@@ -3796,11 +3796,11 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>soul</t>
+          <t>nifi</t>
         </is>
       </c>
       <c r="C161" t="b">
@@ -3817,32 +3817,32 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>speedment</t>
+          <t>nomulus</t>
         </is>
       </c>
       <c r="C162" t="b">
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>spotbugs</t>
+          <t>nutch</t>
         </is>
       </c>
       <c r="C163" t="b">
@@ -3859,11 +3859,11 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>spring-boot-admin</t>
+          <t>nutz</t>
         </is>
       </c>
       <c r="C164" t="b">
@@ -3880,11 +3880,11 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>spring-cloud-alibaba</t>
+          <t>onedev</t>
         </is>
       </c>
       <c r="C165" t="b">
@@ -3901,11 +3901,11 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>spring-cloud-config</t>
+          <t>openapi-generator</t>
         </is>
       </c>
       <c r="C166" t="b">
@@ -3922,22 +3922,22 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>spring-cloud-gateway</t>
+          <t>opengrok</t>
         </is>
       </c>
       <c r="C167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3947,70 +3947,70 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>spring-cloud-netflix</t>
+          <t>openvidu</t>
         </is>
       </c>
       <c r="C168" t="b">
         <v>1</v>
       </c>
       <c r="D168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>spring-cloud-sleuth</t>
+          <t>osmdroid</t>
         </is>
       </c>
       <c r="C169" t="b">
         <v>1</v>
       </c>
       <c r="D169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>stagemonitor</t>
+          <t>pac4j</t>
         </is>
       </c>
       <c r="C170" t="b">
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>pentaho-kettle</t>
         </is>
       </c>
       <c r="C171" t="b">
@@ -4027,32 +4027,32 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>strimzi-kafka-operator</t>
+          <t>pitest</t>
         </is>
       </c>
       <c r="C172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>swagger-core</t>
+          <t>pmd</t>
         </is>
       </c>
       <c r="C173" t="b">
@@ -4069,11 +4069,11 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>syncany</t>
+          <t>poi</t>
         </is>
       </c>
       <c r="C174" t="b">
@@ -4090,74 +4090,74 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>synthea</t>
+          <t>presto</t>
         </is>
       </c>
       <c r="C175" t="b">
         <v>1</v>
       </c>
       <c r="D175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>tablesaw</t>
+          <t>primefaces</t>
         </is>
       </c>
       <c r="C176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>teammates</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="C177" t="b">
         <v>1</v>
       </c>
       <c r="D177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>thingsboard</t>
+          <t>psi-probe</t>
         </is>
       </c>
       <c r="C178" t="b">
@@ -4174,53 +4174,53 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>thymeleaf</t>
+          <t>pslab-android</t>
         </is>
       </c>
       <c r="C179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>tika</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="C180" t="b">
         <v>1</v>
       </c>
       <c r="D180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>tomcat</t>
+          <t>quarkus</t>
         </is>
       </c>
       <c r="C181" t="b">
@@ -4237,11 +4237,11 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>traccar</t>
+          <t>quarkus-quickstarts</t>
         </is>
       </c>
       <c r="C182" t="b">
@@ -4258,116 +4258,116 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>uaa</t>
+          <t>querydsl</t>
         </is>
       </c>
       <c r="C183" t="b">
         <v>1</v>
       </c>
       <c r="D183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>uhabits</t>
+          <t>questdb</t>
         </is>
       </c>
       <c r="C184" t="b">
         <v>1</v>
       </c>
       <c r="D184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>undertow</t>
+          <t>ratpack</t>
         </is>
       </c>
       <c r="C185" t="b">
         <v>1</v>
       </c>
       <c r="D185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>vert.x</t>
+          <t>redisson</t>
         </is>
       </c>
       <c r="C186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>vespa</t>
+          <t>ripme</t>
         </is>
       </c>
       <c r="C187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>visualvm</t>
+          <t>robolectric</t>
         </is>
       </c>
       <c r="C188" t="b">
@@ -4384,11 +4384,11 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>wildfly</t>
+          <t>rocketmq</t>
         </is>
       </c>
       <c r="C189" t="b">
@@ -4405,11 +4405,11 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>xabber-android</t>
+          <t>rstudio</t>
         </is>
       </c>
       <c r="C190" t="b">
@@ -4426,53 +4426,53 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>yacy_search_server</t>
+          <t>runelite</t>
         </is>
       </c>
       <c r="C191" t="b">
         <v>1</v>
       </c>
       <c r="D191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>zaproxy</t>
+          <t>scouter</t>
         </is>
       </c>
       <c r="C192" t="b">
         <v>1</v>
       </c>
       <c r="D192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>zeebe</t>
+          <t>selenium</t>
         </is>
       </c>
       <c r="C193" t="b">
@@ -4489,32 +4489,32 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>zeppelin</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="C194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>zipkin</t>
+          <t>servicecomb-java-chassis</t>
         </is>
       </c>
       <c r="C195" t="b">
@@ -4531,20 +4531,1049 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
+          <t>servicecomb-pack</t>
+        </is>
+      </c>
+      <c r="C196" t="b">
+        <v>1</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>shardingsphere-elasticjob</t>
+        </is>
+      </c>
+      <c r="C197" t="b">
+        <v>1</v>
+      </c>
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>shiro</t>
+        </is>
+      </c>
+      <c r="C198" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" t="b">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>siddhi</t>
+        </is>
+      </c>
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>skywalking</t>
+        </is>
+      </c>
+      <c r="C200" t="b">
+        <v>1</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>smile</t>
+        </is>
+      </c>
+      <c r="C201" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" t="b">
+        <v>0</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>sonarqube</t>
+        </is>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>spock</t>
+        </is>
+      </c>
+      <c r="C203" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" t="b">
+        <v>0</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>spoon</t>
+        </is>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>spotbugs</t>
+        </is>
+      </c>
+      <c r="C205" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>spring-batch</t>
+        </is>
+      </c>
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>spring-boot</t>
+        </is>
+      </c>
+      <c r="C207" t="b">
+        <v>1</v>
+      </c>
+      <c r="D207" t="b">
+        <v>1</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>spring-boot-admin</t>
+        </is>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>spring-cloud-alibaba</t>
+        </is>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>spring-cloud-config</t>
+        </is>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" t="b">
+        <v>1</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>spring-cloud-gateway</t>
+        </is>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" t="b">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>NoSQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>spring-cloud-netflix</t>
+        </is>
+      </c>
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>spring-cloud-sleuth</t>
+        </is>
+      </c>
+      <c r="C213" t="b">
+        <v>1</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>spring-data-redis</t>
+        </is>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>NoSQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>spring-integration</t>
+        </is>
+      </c>
+      <c r="C215" t="b">
+        <v>1</v>
+      </c>
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>spring-kafka</t>
+        </is>
+      </c>
+      <c r="C216" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216" t="b">
+        <v>0</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>spring-security</t>
+        </is>
+      </c>
+      <c r="C217" t="b">
+        <v>1</v>
+      </c>
+      <c r="D217" t="b">
+        <v>1</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>springdoc-openapi</t>
+        </is>
+      </c>
+      <c r="C218" t="b">
+        <v>1</v>
+      </c>
+      <c r="D218" t="b">
+        <v>0</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>storm</t>
+        </is>
+      </c>
+      <c r="C219" t="b">
+        <v>1</v>
+      </c>
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>strimzi-kafka-operator</t>
+        </is>
+      </c>
+      <c r="C220" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>struts</t>
+        </is>
+      </c>
+      <c r="C221" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221" t="b">
+        <v>0</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>swagger-core</t>
+        </is>
+      </c>
+      <c r="C222" t="b">
+        <v>1</v>
+      </c>
+      <c r="D222" t="b">
+        <v>0</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>synthea</t>
+        </is>
+      </c>
+      <c r="C223" t="b">
+        <v>1</v>
+      </c>
+      <c r="D223" t="b">
+        <v>0</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>tablesaw</t>
+        </is>
+      </c>
+      <c r="C224" t="b">
+        <v>1</v>
+      </c>
+      <c r="D224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>teammates</t>
+        </is>
+      </c>
+      <c r="C225" t="b">
+        <v>1</v>
+      </c>
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>testcontainers-java</t>
+        </is>
+      </c>
+      <c r="C226" t="b">
+        <v>1</v>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>thingsboard</t>
+        </is>
+      </c>
+      <c r="C227" t="b">
+        <v>1</v>
+      </c>
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>tika</t>
+        </is>
+      </c>
+      <c r="C228" t="b">
+        <v>1</v>
+      </c>
+      <c r="D228" t="b">
+        <v>0</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>tinkerpop</t>
+        </is>
+      </c>
+      <c r="C229" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>tomcat</t>
+        </is>
+      </c>
+      <c r="C230" t="b">
+        <v>1</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>traccar</t>
+        </is>
+      </c>
+      <c r="C231" t="b">
+        <v>1</v>
+      </c>
+      <c r="D231" t="b">
+        <v>1</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>trino</t>
+        </is>
+      </c>
+      <c r="C232" t="b">
+        <v>1</v>
+      </c>
+      <c r="D232" t="b">
+        <v>1</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>uaa</t>
+        </is>
+      </c>
+      <c r="C233" t="b">
+        <v>1</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>undertow</t>
+        </is>
+      </c>
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>vert.x</t>
+        </is>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>NoSQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>vespa</t>
+        </is>
+      </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>NoSQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>visualvm</t>
+        </is>
+      </c>
+      <c r="C237" t="b">
+        <v>1</v>
+      </c>
+      <c r="D237" t="b">
+        <v>0</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>webmagic</t>
+        </is>
+      </c>
+      <c r="C238" t="b">
+        <v>1</v>
+      </c>
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>wildfly</t>
+        </is>
+      </c>
+      <c r="C239" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" t="b">
+        <v>0</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>xxl-job</t>
+        </is>
+      </c>
+      <c r="C240" t="b">
+        <v>1</v>
+      </c>
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>yacy_search_server</t>
+        </is>
+      </c>
+      <c r="C241" t="b">
+        <v>1</v>
+      </c>
+      <c r="D241" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>zaproxy</t>
+        </is>
+      </c>
+      <c r="C242" t="b">
+        <v>1</v>
+      </c>
+      <c r="D242" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Relational</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>zeppelin</t>
+        </is>
+      </c>
+      <c r="C243" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243" t="b">
+        <v>1</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>zipkin</t>
+        </is>
+      </c>
+      <c r="C244" t="b">
+        <v>1</v>
+      </c>
+      <c r="D244" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
           <t>zookeeper</t>
         </is>
       </c>
-      <c r="C196" t="b">
-        <v>1</v>
-      </c>
-      <c r="D196" t="b">
-        <v>0</v>
-      </c>
-      <c r="E196" t="inlineStr">
+      <c r="C245" t="b">
+        <v>1</v>
+      </c>
+      <c r="D245" t="b">
+        <v>0</v>
+      </c>
+      <c r="E245" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>

--- a/src/modelsTeste.xlsx
+++ b/src/modelsTeste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -499,53 +499,53 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AndroidUtilCode</t>
+          <t>AnySoftKeyboard</t>
         </is>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AnySoftKeyboard</t>
+          <t>AsciidocFX</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AsciidocFX</t>
+          <t>AxonFramework</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -562,11 +562,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AxonFramework</t>
+          <t>BIMserver</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -583,22 +583,22 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMserver</t>
+          <t>BroadleafCommerce</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BroadleafCommerce</t>
+          <t>BungeeCord</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -629,7 +629,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BungeeCord</t>
+          <t>Chronicle-Queue</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -646,11 +646,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chronicle-Queue</t>
+          <t>CoreNLP</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -667,32 +667,32 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CoreNLP</t>
+          <t>DependencyCheck</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DependencyCheck</t>
+          <t>FrameworkBenchmarks</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -713,18 +713,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FirebaseUI-Android</t>
+          <t>HikariCP</t>
         </is>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -734,28 +734,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FrameworkBenchmarks</t>
+          <t>JSqlParser</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gaffer</t>
+          <t>MPAndroidChart</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -772,32 +772,32 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HikariCP</t>
+          <t>NetGuard</t>
         </is>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JSqlParser</t>
+          <t>OpenID-Connect-Java-Spring-Server</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -814,43 +814,43 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MPAndroidChart</t>
+          <t>OpenRefine</t>
         </is>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NetGuard</t>
+          <t>OpenTripPlanner</t>
         </is>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -860,49 +860,49 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OpenID-Connect-Java-Spring-Server</t>
+          <t>Openfire</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OpenRefine</t>
+          <t>OsmAnd</t>
         </is>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OpenTripPlanner</t>
+          <t>Saturn</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -919,11 +919,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Openfire</t>
+          <t>ShedLock</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -940,32 +940,32 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OsmAnd</t>
+          <t>Signal-Android</t>
         </is>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Saturn</t>
+          <t>TwelveMonkeys</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -982,95 +982,95 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ShedLock</t>
+          <t>Twitter4J</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Signal-Android</t>
+          <t>UniversalMediaServer</t>
         </is>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TwelveMonkeys</t>
+          <t>activemq</t>
         </is>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Twitter4J</t>
+          <t>aliyun-openapi-java-sdk</t>
         </is>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UniversalMediaServer</t>
+          <t>alluxio</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1087,11 +1087,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>YCSB</t>
+          <t>ambari</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1108,11 +1108,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>activemq</t>
+          <t>ambry</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1129,95 +1129,95 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aliyun-openapi-java-sdk</t>
+          <t>android</t>
         </is>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>alluxio</t>
+          <t>android.1</t>
         </is>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ambari</t>
+          <t>armeria</t>
         </is>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ambry</t>
+          <t>atmosphere</t>
         </is>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>autopsy</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1234,32 +1234,32 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>armeria</t>
+          <t>avro</t>
         </is>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>atmosphere</t>
+          <t>aws-sdk-java</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1276,11 +1276,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>autopsy</t>
+          <t>aws-sdk-java-v2</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1297,32 +1297,32 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>avro</t>
+          <t>azkaban</t>
         </is>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>aws-sdk-java</t>
+          <t>bazel</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -1339,11 +1339,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>aws-sdk-java-v2</t>
+          <t>beam</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -1360,11 +1360,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>azkaban</t>
+          <t>bisq</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -1381,32 +1381,32 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bazel</t>
+          <t>bitcoinj</t>
         </is>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>beam</t>
+          <t>bookkeeper</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -1423,95 +1423,95 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bisq</t>
+          <t>bootique</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bitcoinj</t>
+          <t>brave</t>
         </is>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bookkeeper</t>
+          <t>byte-buddy</t>
         </is>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bootique</t>
+          <t>caffeine</t>
         </is>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>brave</t>
+          <t>calcite</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -1528,11 +1528,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>byte-buddy</t>
+          <t>camel</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -1549,32 +1549,32 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>caffeine</t>
+          <t>camunda-bpm-platform</t>
         </is>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>calcite</t>
+          <t>cas</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -1591,32 +1591,32 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>camel</t>
+          <t>cgeo</t>
         </is>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>camunda-bpm-platform</t>
+          <t>checkstyle</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -1633,11 +1633,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cas</t>
+          <t>commafeed</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -1654,43 +1654,43 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cgeo</t>
+          <t>crate</t>
         </is>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>checkstyle</t>
+          <t>cuba</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -1700,49 +1700,49 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>commafeed</t>
+          <t>cucumber-jvm</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>crate</t>
+          <t>cyberduck</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cuba</t>
+          <t>dbeaver</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -1759,53 +1759,53 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cucumber-jvm</t>
+          <t>debezium</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cyberduck</t>
+          <t>docker-maven-plugin</t>
         </is>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>dbeaver</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="C66" t="b">
@@ -1822,11 +1822,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>debezium</t>
+          <t>dropwizard</t>
         </is>
       </c>
       <c r="C67" t="b">
@@ -1843,53 +1843,53 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>docker-maven-plugin</t>
+          <t>dubbo</t>
         </is>
       </c>
       <c r="C68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>dynmap</t>
         </is>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dropwizard</t>
+          <t>ebean</t>
         </is>
       </c>
       <c r="C70" t="b">
@@ -1906,116 +1906,116 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>dubbo</t>
+          <t>ehcache3</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>dynmap</t>
+          <t>elasticsearch</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ebean</t>
+          <t>embulk</t>
         </is>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ehcache3</t>
+          <t>error-prone</t>
         </is>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>elasticsearch</t>
+          <t>fastjson</t>
         </is>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>embulk</t>
+          <t>firebase-android-sdk</t>
         </is>
       </c>
       <c r="C76" t="b">
@@ -2032,53 +2032,53 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>error-prone</t>
+          <t>flexmark-java</t>
         </is>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>fastjson</t>
+          <t>flink</t>
         </is>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>find-sec-bugs</t>
+          <t>flowable-engine</t>
         </is>
       </c>
       <c r="C79" t="b">
@@ -2095,53 +2095,53 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>firebase-android-sdk</t>
+          <t>flyway</t>
         </is>
       </c>
       <c r="C80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>flexmark-java</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>flink</t>
+          <t>gatk</t>
         </is>
       </c>
       <c r="C82" t="b">
@@ -2158,11 +2158,11 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>flowable-engine</t>
+          <t>genie</t>
         </is>
       </c>
       <c r="C83" t="b">
@@ -2179,11 +2179,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>flyway</t>
+          <t>geode</t>
         </is>
       </c>
       <c r="C84" t="b">
@@ -2200,11 +2200,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>geoserver</t>
         </is>
       </c>
       <c r="C85" t="b">
@@ -2221,11 +2221,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>gatk</t>
+          <t>geotools</t>
         </is>
       </c>
       <c r="C86" t="b">
@@ -2242,32 +2242,32 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>genie</t>
+          <t>gephi</t>
         </is>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>geode</t>
+          <t>ghidra</t>
         </is>
       </c>
       <c r="C88" t="b">
@@ -2284,11 +2284,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>geoserver</t>
+          <t>gitlab-plugin</t>
         </is>
       </c>
       <c r="C89" t="b">
@@ -2305,11 +2305,11 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>geotools</t>
+          <t>gobblin</t>
         </is>
       </c>
       <c r="C90" t="b">
@@ -2326,11 +2326,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>gephi</t>
+          <t>gocd</t>
         </is>
       </c>
       <c r="C91" t="b">
@@ -2347,11 +2347,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ghidra</t>
+          <t>google-api-java-client</t>
         </is>
       </c>
       <c r="C92" t="b">
@@ -2368,53 +2368,53 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>gitlab-plugin</t>
+          <t>google-cloud-java</t>
         </is>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>gobblin</t>
+          <t>google-http-java-client</t>
         </is>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>gocd</t>
+          <t>graal</t>
         </is>
       </c>
       <c r="C95" t="b">
@@ -2431,158 +2431,158 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>google-api-java-client</t>
+          <t>graphhopper</t>
         </is>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>google-cloud-java</t>
+          <t>graphql-java</t>
         </is>
       </c>
       <c r="C97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>google-http-java-client</t>
+          <t>graylog2-server</t>
         </is>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>graal</t>
+          <t>grobid</t>
         </is>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>graphhopper</t>
+          <t>groovy</t>
         </is>
       </c>
       <c r="C100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>graphql-java</t>
+          <t>grpc-java</t>
         </is>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>graylog2-server</t>
+          <t>gson</t>
         </is>
       </c>
       <c r="C102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>grobid</t>
+          <t>guava</t>
         </is>
       </c>
       <c r="C103" t="b">
@@ -2599,11 +2599,11 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>groovy</t>
+          <t>guice</t>
         </is>
       </c>
       <c r="C104" t="b">
@@ -2620,95 +2620,95 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>grpc-java</t>
+          <t>hadoop</t>
         </is>
       </c>
       <c r="C105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>gson</t>
+          <t>hapi-fhir</t>
         </is>
       </c>
       <c r="C106" t="b">
         <v>1</v>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>guava</t>
+          <t>hawtio</t>
         </is>
       </c>
       <c r="C107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>guice</t>
+          <t>heritrix3</t>
         </is>
       </c>
       <c r="C108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>hadoop</t>
+          <t>hive</t>
         </is>
       </c>
       <c r="C109" t="b">
@@ -2725,11 +2725,11 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>hapi-fhir</t>
+          <t>hudi</t>
         </is>
       </c>
       <c r="C110" t="b">
@@ -2746,74 +2746,74 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>hawtio</t>
+          <t>iceberg</t>
         </is>
       </c>
       <c r="C111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>heritrix3</t>
+          <t>immutables</t>
         </is>
       </c>
       <c r="C112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>hive</t>
+          <t>initializr</t>
         </is>
       </c>
       <c r="C113" t="b">
         <v>1</v>
       </c>
       <c r="D113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>hudi</t>
+          <t>intellij-plugins</t>
         </is>
       </c>
       <c r="C114" t="b">
@@ -2830,32 +2830,32 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>i2p.i2p</t>
+          <t>iotdb</t>
         </is>
       </c>
       <c r="C115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>iceberg</t>
+          <t>jabref</t>
         </is>
       </c>
       <c r="C116" t="b">
@@ -2872,53 +2872,53 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>immutables</t>
+          <t>jackson-databind</t>
         </is>
       </c>
       <c r="C117" t="b">
         <v>1</v>
       </c>
       <c r="D117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>initializr</t>
+          <t>janusgraph</t>
         </is>
       </c>
       <c r="C118" t="b">
         <v>1</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>intellij-plugins</t>
+          <t>java-design-patterns</t>
         </is>
       </c>
       <c r="C119" t="b">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>iotdb</t>
+          <t>javamelody</t>
         </is>
       </c>
       <c r="C120" t="b">
@@ -2956,158 +2956,158 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jabref</t>
+          <t>jbpm</t>
         </is>
       </c>
       <c r="C121" t="b">
         <v>1</v>
       </c>
       <c r="D121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jackson-databind</t>
+          <t>jdbi</t>
         </is>
       </c>
       <c r="C122" t="b">
         <v>1</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>janusgraph</t>
+          <t>jenkins</t>
         </is>
       </c>
       <c r="C123" t="b">
         <v>1</v>
       </c>
       <c r="D123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>java-design-patterns</t>
+          <t>jib</t>
         </is>
       </c>
       <c r="C124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>javamelody</t>
+          <t>jitsi</t>
         </is>
       </c>
       <c r="C125" t="b">
         <v>1</v>
       </c>
       <c r="D125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jbpm</t>
+          <t>jmeter</t>
         </is>
       </c>
       <c r="C126" t="b">
         <v>1</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jdbi</t>
+          <t>jmonkeyengine</t>
         </is>
       </c>
       <c r="C127" t="b">
         <v>1</v>
       </c>
       <c r="D127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jenkins</t>
+          <t>joda-time</t>
         </is>
       </c>
       <c r="C128" t="b">
@@ -3124,53 +3124,53 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jib</t>
+          <t>jodd</t>
         </is>
       </c>
       <c r="C129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jitsi</t>
+          <t>jooby</t>
         </is>
       </c>
       <c r="C130" t="b">
         <v>1</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jmeter</t>
+          <t>keycloak</t>
         </is>
       </c>
       <c r="C131" t="b">
@@ -3187,22 +3187,22 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jmonkeyengine</t>
+          <t>killbill</t>
         </is>
       </c>
       <c r="C132" t="b">
         <v>1</v>
       </c>
       <c r="D132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>joda-time</t>
+          <t>ksql</t>
         </is>
       </c>
       <c r="C133" t="b">
@@ -3233,28 +3233,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jodd</t>
+          <t>kubernetes-client</t>
         </is>
       </c>
       <c r="C134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jooby</t>
+          <t>languagetool</t>
         </is>
       </c>
       <c r="C135" t="b">
@@ -3271,148 +3271,148 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>kairosdb</t>
+          <t>light-4j</t>
         </is>
       </c>
       <c r="C136" t="b">
         <v>1</v>
       </c>
       <c r="D136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>keycloak</t>
+          <t>liquibase</t>
         </is>
       </c>
       <c r="C137" t="b">
         <v>1</v>
       </c>
       <c r="D137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>killbill</t>
+          <t>logback</t>
         </is>
       </c>
       <c r="C138" t="b">
         <v>1</v>
       </c>
       <c r="D138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ksql</t>
+          <t>logging-log4j2</t>
         </is>
       </c>
       <c r="C139" t="b">
         <v>1</v>
       </c>
       <c r="D139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>kubernetes-client</t>
+          <t>mage</t>
         </is>
       </c>
       <c r="C140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>languagetool</t>
+          <t>manifold</t>
         </is>
       </c>
       <c r="C141" t="b">
         <v>1</v>
       </c>
       <c r="D141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>light-4j</t>
+          <t>maxwell</t>
         </is>
       </c>
       <c r="C142" t="b">
         <v>1</v>
       </c>
       <c r="D142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3422,49 +3422,49 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>liquibase</t>
+          <t>micrometer</t>
         </is>
       </c>
       <c r="C143" t="b">
         <v>1</v>
       </c>
       <c r="D143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>logback</t>
+          <t>micronaut-core</t>
         </is>
       </c>
       <c r="C144" t="b">
         <v>1</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>logging-log4j2</t>
+          <t>modeldb</t>
         </is>
       </c>
       <c r="C145" t="b">
@@ -3481,53 +3481,53 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>mage</t>
+          <t>mongo-java-driver</t>
         </is>
       </c>
       <c r="C146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>manifold</t>
+          <t>moquette</t>
         </is>
       </c>
       <c r="C147" t="b">
         <v>1</v>
       </c>
       <c r="D147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>materialistic</t>
+          <t>morphia</t>
         </is>
       </c>
       <c r="C148" t="b">
@@ -3544,32 +3544,32 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>maxwell</t>
+          <t>nacos</t>
         </is>
       </c>
       <c r="C149" t="b">
         <v>1</v>
       </c>
       <c r="D149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>micrometer</t>
+          <t>neo4j-apoc-procedures</t>
         </is>
       </c>
       <c r="C150" t="b">
@@ -3586,11 +3586,11 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>micronaut-core</t>
+          <t>netbeans</t>
         </is>
       </c>
       <c r="C151" t="b">
@@ -3607,11 +3607,11 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>modeldb</t>
+          <t>netty</t>
         </is>
       </c>
       <c r="C152" t="b">
@@ -3628,32 +3628,32 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>mongo-java-driver</t>
+          <t>ngrinder</t>
         </is>
       </c>
       <c r="C153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>moquette</t>
+          <t>nifi</t>
         </is>
       </c>
       <c r="C154" t="b">
@@ -3670,32 +3670,32 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>morphia</t>
+          <t>nomulus</t>
         </is>
       </c>
       <c r="C155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>nacos</t>
+          <t>nutch</t>
         </is>
       </c>
       <c r="C156" t="b">
@@ -3712,11 +3712,11 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>neo4j-apoc-procedures</t>
+          <t>nutz</t>
         </is>
       </c>
       <c r="C157" t="b">
@@ -3733,11 +3733,11 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>netbeans</t>
+          <t>onedev</t>
         </is>
       </c>
       <c r="C158" t="b">
@@ -3754,11 +3754,11 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>netty</t>
+          <t>openapi-generator</t>
         </is>
       </c>
       <c r="C159" t="b">
@@ -3775,32 +3775,32 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ngrinder</t>
+          <t>opengrok</t>
         </is>
       </c>
       <c r="C160" t="b">
         <v>1</v>
       </c>
       <c r="D160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>nifi</t>
+          <t>openvidu</t>
         </is>
       </c>
       <c r="C161" t="b">
@@ -3817,32 +3817,32 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>nomulus</t>
+          <t>osmdroid</t>
         </is>
       </c>
       <c r="C162" t="b">
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>nutch</t>
+          <t>pac4j</t>
         </is>
       </c>
       <c r="C163" t="b">
@@ -3859,11 +3859,11 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>nutz</t>
+          <t>pentaho-kettle</t>
         </is>
       </c>
       <c r="C164" t="b">
@@ -3880,53 +3880,53 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>onedev</t>
+          <t>pitest</t>
         </is>
       </c>
       <c r="C165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>openapi-generator</t>
+          <t>pmd</t>
         </is>
       </c>
       <c r="C166" t="b">
         <v>1</v>
       </c>
       <c r="D166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>opengrok</t>
+          <t>poi</t>
         </is>
       </c>
       <c r="C167" t="b">
@@ -3943,11 +3943,11 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>openvidu</t>
+          <t>presto</t>
         </is>
       </c>
       <c r="C168" t="b">
@@ -3964,74 +3964,74 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>osmdroid</t>
+          <t>primefaces</t>
         </is>
       </c>
       <c r="C169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>pac4j</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="C170" t="b">
         <v>1</v>
       </c>
       <c r="D170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>pentaho-kettle</t>
+          <t>psi-probe</t>
         </is>
       </c>
       <c r="C171" t="b">
         <v>1</v>
       </c>
       <c r="D171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>pitest</t>
+          <t>pslab-android</t>
         </is>
       </c>
       <c r="C172" t="b">
@@ -4048,53 +4048,53 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>pmd</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="C173" t="b">
         <v>1</v>
       </c>
       <c r="D173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>poi</t>
+          <t>quarkus</t>
         </is>
       </c>
       <c r="C174" t="b">
         <v>1</v>
       </c>
       <c r="D174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>presto</t>
+          <t>querydsl</t>
         </is>
       </c>
       <c r="C175" t="b">
@@ -4111,53 +4111,53 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>primefaces</t>
+          <t>questdb</t>
         </is>
       </c>
       <c r="C176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>ratpack</t>
         </is>
       </c>
       <c r="C177" t="b">
         <v>1</v>
       </c>
       <c r="D177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>psi-probe</t>
+          <t>redisson</t>
         </is>
       </c>
       <c r="C178" t="b">
@@ -4174,74 +4174,74 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>pslab-android</t>
+          <t>robolectric</t>
         </is>
       </c>
       <c r="C179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>pulsar</t>
+          <t>rocketmq</t>
         </is>
       </c>
       <c r="C180" t="b">
         <v>1</v>
       </c>
       <c r="D180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>quarkus</t>
+          <t>rstudio</t>
         </is>
       </c>
       <c r="C181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>quarkus-quickstarts</t>
+          <t>runelite</t>
         </is>
       </c>
       <c r="C182" t="b">
@@ -4258,11 +4258,11 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>querydsl</t>
+          <t>selenium</t>
         </is>
       </c>
       <c r="C183" t="b">
@@ -4279,32 +4279,32 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>questdb</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="C184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ratpack</t>
+          <t>servicecomb-java-chassis</t>
         </is>
       </c>
       <c r="C185" t="b">
@@ -4321,11 +4321,11 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>redisson</t>
+          <t>servicecomb-pack</t>
         </is>
       </c>
       <c r="C186" t="b">
@@ -4342,116 +4342,116 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ripme</t>
+          <t>shardingsphere-elasticjob</t>
         </is>
       </c>
       <c r="C187" t="b">
         <v>1</v>
       </c>
       <c r="D187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>robolectric</t>
+          <t>shiro</t>
         </is>
       </c>
       <c r="C188" t="b">
         <v>1</v>
       </c>
       <c r="D188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>rocketmq</t>
+          <t>siddhi</t>
         </is>
       </c>
       <c r="C189" t="b">
         <v>1</v>
       </c>
       <c r="D189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>rstudio</t>
+          <t>skywalking</t>
         </is>
       </c>
       <c r="C190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>runelite</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="C191" t="b">
         <v>1</v>
       </c>
       <c r="D191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>scouter</t>
+          <t>sonarqube</t>
         </is>
       </c>
       <c r="C192" t="b">
@@ -4468,53 +4468,53 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>selenium</t>
+          <t>spock</t>
         </is>
       </c>
       <c r="C193" t="b">
         <v>1</v>
       </c>
       <c r="D193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>servicecomb-java-chassis</t>
+          <t>spotbugs</t>
         </is>
       </c>
       <c r="C195" t="b">
@@ -4531,11 +4531,11 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>servicecomb-pack</t>
+          <t>spring-batch</t>
         </is>
       </c>
       <c r="C196" t="b">
@@ -4552,11 +4552,11 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>shardingsphere-elasticjob</t>
+          <t>spring-boot</t>
         </is>
       </c>
       <c r="C197" t="b">
@@ -4573,11 +4573,11 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>shiro</t>
+          <t>spring-boot-admin</t>
         </is>
       </c>
       <c r="C198" t="b">
@@ -4594,11 +4594,11 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>siddhi</t>
+          <t>spring-cloud-alibaba</t>
         </is>
       </c>
       <c r="C199" t="b">
@@ -4615,11 +4615,11 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>skywalking</t>
+          <t>spring-cloud-config</t>
         </is>
       </c>
       <c r="C200" t="b">
@@ -4636,32 +4636,32 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>spring-cloud-gateway</t>
         </is>
       </c>
       <c r="C201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>sonarqube</t>
+          <t>spring-cloud-netflix</t>
         </is>
       </c>
       <c r="C202" t="b">
@@ -4678,53 +4678,53 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>spock</t>
+          <t>spring-cloud-sleuth</t>
         </is>
       </c>
       <c r="C203" t="b">
         <v>1</v>
       </c>
       <c r="D203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>spring-data-redis</t>
         </is>
       </c>
       <c r="C204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="b">
         <v>1</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>spotbugs</t>
+          <t>spring-integration</t>
         </is>
       </c>
       <c r="C205" t="b">
@@ -4741,32 +4741,32 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>spring-batch</t>
+          <t>spring-kafka</t>
         </is>
       </c>
       <c r="C206" t="b">
         <v>1</v>
       </c>
       <c r="D206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>spring-boot</t>
+          <t>spring-security</t>
         </is>
       </c>
       <c r="C207" t="b">
@@ -4783,32 +4783,32 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>spring-boot-admin</t>
+          <t>springdoc-openapi</t>
         </is>
       </c>
       <c r="C208" t="b">
         <v>1</v>
       </c>
       <c r="D208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>spring-cloud-alibaba</t>
+          <t>storm</t>
         </is>
       </c>
       <c r="C209" t="b">
@@ -4825,11 +4825,11 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>spring-cloud-config</t>
+          <t>strimzi-kafka-operator</t>
         </is>
       </c>
       <c r="C210" t="b">
@@ -4846,95 +4846,95 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>spring-cloud-gateway</t>
+          <t>struts</t>
         </is>
       </c>
       <c r="C211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>spring-cloud-netflix</t>
+          <t>swagger-core</t>
         </is>
       </c>
       <c r="C212" t="b">
         <v>1</v>
       </c>
       <c r="D212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>spring-cloud-sleuth</t>
+          <t>tablesaw</t>
         </is>
       </c>
       <c r="C213" t="b">
         <v>1</v>
       </c>
       <c r="D213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>spring-data-redis</t>
+          <t>teammates</t>
         </is>
       </c>
       <c r="C214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>spring-integration</t>
+          <t>testcontainers-java</t>
         </is>
       </c>
       <c r="C215" t="b">
@@ -4951,74 +4951,74 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>spring-kafka</t>
+          <t>thingsboard</t>
         </is>
       </c>
       <c r="C216" t="b">
         <v>1</v>
       </c>
       <c r="D216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>spring-security</t>
+          <t>tika</t>
         </is>
       </c>
       <c r="C217" t="b">
         <v>1</v>
       </c>
       <c r="D217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>springdoc-openapi</t>
+          <t>tinkerpop</t>
         </is>
       </c>
       <c r="C218" t="b">
         <v>1</v>
       </c>
       <c r="D218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>tomcat</t>
         </is>
       </c>
       <c r="C219" t="b">
@@ -5035,11 +5035,11 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>strimzi-kafka-operator</t>
+          <t>traccar</t>
         </is>
       </c>
       <c r="C220" t="b">
@@ -5056,32 +5056,32 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>struts</t>
+          <t>trino</t>
         </is>
       </c>
       <c r="C221" t="b">
         <v>1</v>
       </c>
       <c r="D221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>swagger-core</t>
+          <t>uaa</t>
         </is>
       </c>
       <c r="C222" t="b">
@@ -5098,11 +5098,11 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>synthea</t>
+          <t>undertow</t>
         </is>
       </c>
       <c r="C223" t="b">
@@ -5119,116 +5119,116 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>tablesaw</t>
+          <t>vert.x</t>
         </is>
       </c>
       <c r="C224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>teammates</t>
+          <t>vespa</t>
         </is>
       </c>
       <c r="C225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>testcontainers-java</t>
+          <t>visualvm</t>
         </is>
       </c>
       <c r="C226" t="b">
         <v>1</v>
       </c>
       <c r="D226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>thingsboard</t>
+          <t>wildfly</t>
         </is>
       </c>
       <c r="C227" t="b">
         <v>1</v>
       </c>
       <c r="D227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>tika</t>
+          <t>xxl-job</t>
         </is>
       </c>
       <c r="C228" t="b">
         <v>1</v>
       </c>
       <c r="D228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>tinkerpop</t>
+          <t>yacy_search_server</t>
         </is>
       </c>
       <c r="C229" t="b">
@@ -5245,32 +5245,32 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>tomcat</t>
+          <t>zaproxy</t>
         </is>
       </c>
       <c r="C230" t="b">
         <v>1</v>
       </c>
       <c r="D230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>traccar</t>
+          <t>zeppelin</t>
         </is>
       </c>
       <c r="C231" t="b">
@@ -5287,11 +5287,11 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>trino</t>
+          <t>zipkin</t>
         </is>
       </c>
       <c r="C232" t="b">
@@ -5308,11 +5308,11 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>uaa</t>
+          <t>zookeeper</t>
         </is>
       </c>
       <c r="C233" t="b">
@@ -5322,258 +5322,6 @@
         <v>0</v>
       </c>
       <c r="E233" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>undertow</t>
-        </is>
-      </c>
-      <c r="C234" t="b">
-        <v>1</v>
-      </c>
-      <c r="D234" t="b">
-        <v>0</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>vert.x</t>
-        </is>
-      </c>
-      <c r="C235" t="b">
-        <v>0</v>
-      </c>
-      <c r="D235" t="b">
-        <v>1</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>NoSQL</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>vespa</t>
-        </is>
-      </c>
-      <c r="C236" t="b">
-        <v>0</v>
-      </c>
-      <c r="D236" t="b">
-        <v>1</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>NoSQL</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>visualvm</t>
-        </is>
-      </c>
-      <c r="C237" t="b">
-        <v>1</v>
-      </c>
-      <c r="D237" t="b">
-        <v>0</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>webmagic</t>
-        </is>
-      </c>
-      <c r="C238" t="b">
-        <v>1</v>
-      </c>
-      <c r="D238" t="b">
-        <v>1</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Multi-Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>wildfly</t>
-        </is>
-      </c>
-      <c r="C239" t="b">
-        <v>1</v>
-      </c>
-      <c r="D239" t="b">
-        <v>0</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>xxl-job</t>
-        </is>
-      </c>
-      <c r="C240" t="b">
-        <v>1</v>
-      </c>
-      <c r="D240" t="b">
-        <v>1</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Multi-Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>yacy_search_server</t>
-        </is>
-      </c>
-      <c r="C241" t="b">
-        <v>1</v>
-      </c>
-      <c r="D241" t="b">
-        <v>1</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Multi-Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>zaproxy</t>
-        </is>
-      </c>
-      <c r="C242" t="b">
-        <v>1</v>
-      </c>
-      <c r="D242" t="b">
-        <v>0</v>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Relational</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>zeppelin</t>
-        </is>
-      </c>
-      <c r="C243" t="b">
-        <v>1</v>
-      </c>
-      <c r="D243" t="b">
-        <v>1</v>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Multi-Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>zipkin</t>
-        </is>
-      </c>
-      <c r="C244" t="b">
-        <v>1</v>
-      </c>
-      <c r="D244" t="b">
-        <v>1</v>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Multi-Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>zookeeper</t>
-        </is>
-      </c>
-      <c r="C245" t="b">
-        <v>1</v>
-      </c>
-      <c r="D245" t="b">
-        <v>0</v>
-      </c>
-      <c r="E245" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>

--- a/src/modelsTeste.xlsx
+++ b/src/modelsTeste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,11 +825,11 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3702,11 +3702,11 @@
         <v>1</v>
       </c>
       <c r="D156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -5119,11 +5119,11 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>vert.x</t>
+          <t>validator</t>
         </is>
       </c>
       <c r="C224" t="b">
@@ -5140,11 +5140,11 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>vespa</t>
+          <t>vert.x</t>
         </is>
       </c>
       <c r="C225" t="b">
@@ -5161,32 +5161,32 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>visualvm</t>
+          <t>vespa</t>
         </is>
       </c>
       <c r="C226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>wildfly</t>
+          <t>visualvm</t>
         </is>
       </c>
       <c r="C227" t="b">
@@ -5203,32 +5203,32 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>xxl-job</t>
+          <t>wildfly</t>
         </is>
       </c>
       <c r="C228" t="b">
         <v>1</v>
       </c>
       <c r="D228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>yacy_search_server</t>
+          <t>xxl-job</t>
         </is>
       </c>
       <c r="C229" t="b">
@@ -5245,53 +5245,53 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>zaproxy</t>
+          <t>yacy_search_server</t>
         </is>
       </c>
       <c r="C230" t="b">
         <v>1</v>
       </c>
       <c r="D230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>zeppelin</t>
+          <t>zaproxy</t>
         </is>
       </c>
       <c r="C231" t="b">
         <v>1</v>
       </c>
       <c r="D231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>zipkin</t>
+          <t>zeppelin</t>
         </is>
       </c>
       <c r="C232" t="b">
@@ -5308,20 +5308,41 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>zipkin</t>
+        </is>
+      </c>
+      <c r="C233" t="b">
+        <v>1</v>
+      </c>
+      <c r="D233" t="b">
+        <v>1</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>zookeeper</t>
         </is>
       </c>
-      <c r="C233" t="b">
-        <v>1</v>
-      </c>
-      <c r="D233" t="b">
-        <v>0</v>
-      </c>
-      <c r="E233" t="inlineStr">
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>

--- a/src/modelsTeste.xlsx
+++ b/src/modelsTeste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,18 +3275,18 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>light-4j</t>
+          <t>liferay-portal</t>
         </is>
       </c>
       <c r="C136" t="b">
         <v>1</v>
       </c>
       <c r="D136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>liquibase</t>
+          <t>light-4j</t>
         </is>
       </c>
       <c r="C137" t="b">
@@ -3313,11 +3313,11 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>logback</t>
+          <t>liquibase</t>
         </is>
       </c>
       <c r="C138" t="b">
@@ -3338,28 +3338,28 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>logging-log4j2</t>
+          <t>logback</t>
         </is>
       </c>
       <c r="C139" t="b">
         <v>1</v>
       </c>
       <c r="D139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>mage</t>
+          <t>logging-log4j2</t>
         </is>
       </c>
       <c r="C140" t="b">
@@ -3380,49 +3380,49 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>manifold</t>
+          <t>mage</t>
         </is>
       </c>
       <c r="C141" t="b">
         <v>1</v>
       </c>
       <c r="D141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>maxwell</t>
+          <t>manifold</t>
         </is>
       </c>
       <c r="C142" t="b">
         <v>1</v>
       </c>
       <c r="D142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>micrometer</t>
+          <t>maxwell</t>
         </is>
       </c>
       <c r="C143" t="b">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>micronaut-core</t>
+          <t>micrometer</t>
         </is>
       </c>
       <c r="C144" t="b">
@@ -3460,11 +3460,11 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>modeldb</t>
+          <t>micronaut-core</t>
         </is>
       </c>
       <c r="C145" t="b">
@@ -3485,18 +3485,18 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>mongo-java-driver</t>
+          <t>modeldb</t>
         </is>
       </c>
       <c r="C146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3506,18 +3506,18 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>moquette</t>
+          <t>mongo-java-driver</t>
         </is>
       </c>
       <c r="C147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3527,39 +3527,39 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>morphia</t>
+          <t>moquette</t>
         </is>
       </c>
       <c r="C148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>nacos</t>
+          <t>morphia</t>
         </is>
       </c>
       <c r="C149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3569,18 +3569,18 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>neo4j-apoc-procedures</t>
+          <t>nacos</t>
         </is>
       </c>
       <c r="C150" t="b">
         <v>1</v>
       </c>
       <c r="D150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>netbeans</t>
+          <t>neo4j-apoc-procedures</t>
         </is>
       </c>
       <c r="C151" t="b">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>netty</t>
+          <t>netbeans</t>
         </is>
       </c>
       <c r="C152" t="b">
@@ -3632,18 +3632,18 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ngrinder</t>
+          <t>netty</t>
         </is>
       </c>
       <c r="C153" t="b">
         <v>1</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3653,18 +3653,18 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>nifi</t>
+          <t>ngrinder</t>
         </is>
       </c>
       <c r="C154" t="b">
         <v>1</v>
       </c>
       <c r="D154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>nomulus</t>
+          <t>nifi</t>
         </is>
       </c>
       <c r="C155" t="b">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>nutch</t>
+          <t>nomulus</t>
         </is>
       </c>
       <c r="C156" t="b">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>nutz</t>
+          <t>nutch</t>
         </is>
       </c>
       <c r="C157" t="b">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>onedev</t>
+          <t>nutz</t>
         </is>
       </c>
       <c r="C158" t="b">
@@ -3754,11 +3754,11 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>openapi-generator</t>
+          <t>onedev</t>
         </is>
       </c>
       <c r="C159" t="b">
@@ -3779,60 +3779,60 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>opengrok</t>
+          <t>openapi-generator</t>
         </is>
       </c>
       <c r="C160" t="b">
         <v>1</v>
       </c>
       <c r="D160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>openvidu</t>
+          <t>opengrok</t>
         </is>
       </c>
       <c r="C161" t="b">
         <v>1</v>
       </c>
       <c r="D161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>osmdroid</t>
+          <t>openvidu</t>
         </is>
       </c>
       <c r="C162" t="b">
         <v>1</v>
       </c>
       <c r="D162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3842,28 +3842,28 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>pac4j</t>
+          <t>osmdroid</t>
         </is>
       </c>
       <c r="C163" t="b">
         <v>1</v>
       </c>
       <c r="D163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>pentaho-kettle</t>
+          <t>pac4j</t>
         </is>
       </c>
       <c r="C164" t="b">
@@ -3880,22 +3880,22 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>pitest</t>
+          <t>pentaho-kettle</t>
         </is>
       </c>
       <c r="C165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3905,18 +3905,18 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>pmd</t>
+          <t>pitest</t>
         </is>
       </c>
       <c r="C166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>poi</t>
+          <t>pmd</t>
         </is>
       </c>
       <c r="C167" t="b">
@@ -3943,22 +3943,22 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>presto</t>
+          <t>poi</t>
         </is>
       </c>
       <c r="C168" t="b">
         <v>1</v>
       </c>
       <c r="D168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -3968,18 +3968,18 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>primefaces</t>
+          <t>presto</t>
         </is>
       </c>
       <c r="C169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -3989,18 +3989,18 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>primefaces</t>
         </is>
       </c>
       <c r="C170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>psi-probe</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="C171" t="b">
@@ -4031,18 +4031,18 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>pslab-android</t>
+          <t>psi-probe</t>
         </is>
       </c>
       <c r="C172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4052,18 +4052,18 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>pulsar</t>
+          <t>pslab-android</t>
         </is>
       </c>
       <c r="C173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>quarkus</t>
+          <t>pulsar</t>
         </is>
       </c>
       <c r="C174" t="b">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>querydsl</t>
+          <t>quarkus</t>
         </is>
       </c>
       <c r="C175" t="b">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>questdb</t>
+          <t>querydsl</t>
         </is>
       </c>
       <c r="C176" t="b">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ratpack</t>
+          <t>questdb</t>
         </is>
       </c>
       <c r="C177" t="b">
@@ -4153,11 +4153,11 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>redisson</t>
+          <t>ratpack</t>
         </is>
       </c>
       <c r="C178" t="b">
@@ -4174,22 +4174,22 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>robolectric</t>
+          <t>redisson</t>
         </is>
       </c>
       <c r="C179" t="b">
         <v>1</v>
       </c>
       <c r="D179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>rocketmq</t>
+          <t>robolectric</t>
         </is>
       </c>
       <c r="C180" t="b">
@@ -4220,18 +4220,18 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>rstudio</t>
+          <t>rocketmq</t>
         </is>
       </c>
       <c r="C181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4241,28 +4241,28 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>runelite</t>
+          <t>rstudio</t>
         </is>
       </c>
       <c r="C182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>selenium</t>
+          <t>runelite</t>
         </is>
       </c>
       <c r="C183" t="b">
@@ -4283,18 +4283,18 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>selenium</t>
         </is>
       </c>
       <c r="C184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4304,18 +4304,18 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>servicecomb-java-chassis</t>
+          <t>serve</t>
         </is>
       </c>
       <c r="C185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>servicecomb-pack</t>
+          <t>servicecomb-java-chassis</t>
         </is>
       </c>
       <c r="C186" t="b">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>shardingsphere-elasticjob</t>
+          <t>servicecomb-pack</t>
         </is>
       </c>
       <c r="C187" t="b">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>shiro</t>
+          <t>shardingsphere-elasticjob</t>
         </is>
       </c>
       <c r="C188" t="b">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>siddhi</t>
+          <t>shiro</t>
         </is>
       </c>
       <c r="C189" t="b">
@@ -4405,11 +4405,11 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>skywalking</t>
+          <t>siddhi</t>
         </is>
       </c>
       <c r="C190" t="b">
@@ -4426,22 +4426,22 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>skywalking</t>
         </is>
       </c>
       <c r="C191" t="b">
         <v>1</v>
       </c>
       <c r="D191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4451,39 +4451,39 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>sonarqube</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="C192" t="b">
         <v>1</v>
       </c>
       <c r="D192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>spock</t>
+          <t>sonarqube</t>
         </is>
       </c>
       <c r="C193" t="b">
         <v>1</v>
       </c>
       <c r="D193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4493,18 +4493,18 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>spoon</t>
+          <t>spock</t>
         </is>
       </c>
       <c r="C194" t="b">
         <v>1</v>
       </c>
       <c r="D194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>spotbugs</t>
+          <t>spoon</t>
         </is>
       </c>
       <c r="C195" t="b">
@@ -4531,11 +4531,11 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>spring-batch</t>
+          <t>spotbugs</t>
         </is>
       </c>
       <c r="C196" t="b">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>spring-boot</t>
+          <t>spring-batch</t>
         </is>
       </c>
       <c r="C197" t="b">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>spring-boot-admin</t>
+          <t>spring-boot</t>
         </is>
       </c>
       <c r="C198" t="b">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>spring-cloud-alibaba</t>
+          <t>spring-boot-admin</t>
         </is>
       </c>
       <c r="C199" t="b">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>spring-cloud-config</t>
+          <t>spring-cloud-alibaba</t>
         </is>
       </c>
       <c r="C200" t="b">
@@ -4640,18 +4640,18 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>spring-cloud-gateway</t>
+          <t>spring-cloud-config</t>
         </is>
       </c>
       <c r="C201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4661,18 +4661,18 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>spring-cloud-netflix</t>
+          <t>spring-cloud-gateway</t>
         </is>
       </c>
       <c r="C202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>spring-cloud-sleuth</t>
+          <t>spring-cloud-netflix</t>
         </is>
       </c>
       <c r="C203" t="b">
@@ -4703,18 +4703,18 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>spring-data-redis</t>
+          <t>spring-cloud-sleuth</t>
         </is>
       </c>
       <c r="C204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="b">
         <v>1</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4724,18 +4724,18 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>spring-integration</t>
+          <t>spring-data-redis</t>
         </is>
       </c>
       <c r="C205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
@@ -4745,18 +4745,18 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>spring-kafka</t>
+          <t>spring-integration</t>
         </is>
       </c>
       <c r="C206" t="b">
         <v>1</v>
       </c>
       <c r="D206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4766,18 +4766,18 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>spring-security</t>
+          <t>spring-kafka</t>
         </is>
       </c>
       <c r="C207" t="b">
         <v>1</v>
       </c>
       <c r="D207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4787,18 +4787,18 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>springdoc-openapi</t>
+          <t>spring-security</t>
         </is>
       </c>
       <c r="C208" t="b">
         <v>1</v>
       </c>
       <c r="D208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4808,18 +4808,18 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>springdoc-openapi</t>
         </is>
       </c>
       <c r="C209" t="b">
         <v>1</v>
       </c>
       <c r="D209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>strimzi-kafka-operator</t>
+          <t>storm</t>
         </is>
       </c>
       <c r="C210" t="b">
@@ -4850,18 +4850,18 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>struts</t>
+          <t>strimzi-kafka-operator</t>
         </is>
       </c>
       <c r="C211" t="b">
         <v>1</v>
       </c>
       <c r="D211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>swagger-core</t>
+          <t>struts</t>
         </is>
       </c>
       <c r="C212" t="b">
@@ -4888,11 +4888,11 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>tablesaw</t>
+          <t>swagger-core</t>
         </is>
       </c>
       <c r="C213" t="b">
@@ -4913,28 +4913,28 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>teammates</t>
+          <t>tablesaw</t>
         </is>
       </c>
       <c r="C214" t="b">
         <v>1</v>
       </c>
       <c r="D214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>testcontainers-java</t>
+          <t>teammates</t>
         </is>
       </c>
       <c r="C215" t="b">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>thingsboard</t>
+          <t>testcontainers-java</t>
         </is>
       </c>
       <c r="C216" t="b">
@@ -4976,18 +4976,18 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>tika</t>
+          <t>thingsboard</t>
         </is>
       </c>
       <c r="C217" t="b">
         <v>1</v>
       </c>
       <c r="D217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -4997,28 +4997,28 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>tinkerpop</t>
+          <t>tika</t>
         </is>
       </c>
       <c r="C218" t="b">
         <v>1</v>
       </c>
       <c r="D218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>tomcat</t>
+          <t>tinkerpop</t>
         </is>
       </c>
       <c r="C219" t="b">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>traccar</t>
+          <t>tomcat</t>
         </is>
       </c>
       <c r="C220" t="b">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>trino</t>
+          <t>traccar</t>
         </is>
       </c>
       <c r="C221" t="b">
@@ -5077,22 +5077,22 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>uaa</t>
+          <t>trino</t>
         </is>
       </c>
       <c r="C222" t="b">
         <v>1</v>
       </c>
       <c r="D222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>undertow</t>
+          <t>uaa</t>
         </is>
       </c>
       <c r="C223" t="b">
@@ -5119,32 +5119,32 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>validator</t>
+          <t>undertow</t>
         </is>
       </c>
       <c r="C224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>vert.x</t>
+          <t>validator</t>
         </is>
       </c>
       <c r="C225" t="b">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>vespa</t>
+          <t>vert.x</t>
         </is>
       </c>
       <c r="C226" t="b">
@@ -5186,28 +5186,28 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>visualvm</t>
+          <t>vespa</t>
         </is>
       </c>
       <c r="C227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>NoSQL</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>wildfly</t>
+          <t>visualvm</t>
         </is>
       </c>
       <c r="C228" t="b">
@@ -5228,18 +5228,18 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>xxl-job</t>
+          <t>wildfly</t>
         </is>
       </c>
       <c r="C229" t="b">
         <v>1</v>
       </c>
       <c r="D229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>yacy_search_server</t>
+          <t>xxl-job</t>
         </is>
       </c>
       <c r="C230" t="b">
@@ -5270,18 +5270,18 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>zaproxy</t>
+          <t>yacy_search_server</t>
         </is>
       </c>
       <c r="C231" t="b">
         <v>1</v>
       </c>
       <c r="D231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Relational</t>
+          <t>Multi-Model</t>
         </is>
       </c>
     </row>
@@ -5291,18 +5291,18 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>zeppelin</t>
+          <t>zaproxy</t>
         </is>
       </c>
       <c r="C232" t="b">
         <v>1</v>
       </c>
       <c r="D232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Multi-Model</t>
+          <t>Relational</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>zipkin</t>
+          <t>zeppelin</t>
         </is>
       </c>
       <c r="C233" t="b">
@@ -5333,16 +5333,37 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>zipkin</t>
+        </is>
+      </c>
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Multi-Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>zookeeper</t>
         </is>
       </c>
-      <c r="C234" t="b">
-        <v>1</v>
-      </c>
-      <c r="D234" t="b">
-        <v>0</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235" t="b">
+        <v>0</v>
+      </c>
+      <c r="E235" t="inlineStr">
         <is>
           <t>Relational</t>
         </is>

--- a/src/modelsTeste.xlsx
+++ b/src/modelsTeste.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Model</t>
+          <t>Models</t>
         </is>
       </c>
     </row>
